--- a/data/BKG.xlsx
+++ b/data/BKG.xlsx
@@ -73,7 +73,7 @@
     <t>Ngày xuất</t>
   </si>
   <si>
-    <t>26/11/2025</t>
+    <t>17/12/2025</t>
   </si>
   <si>
     <t>BKG</t>
@@ -20822,7 +20822,7 @@
         <v>8.4846948874E10</v>
       </c>
       <c r="H12" s="25" t="n">
-        <v>4.3663863342E10</v>
+        <v>4.3620737013E10</v>
       </c>
       <c r="J12" s="25" t="n">
         <v>3.5113668876E10</v>
@@ -20870,7 +20870,7 @@
         <v>1.0161663769E10</v>
       </c>
       <c r="Y12" s="25" t="n">
-        <v>4.3663863342E10</v>
+        <v>4.3620737013E10</v>
       </c>
       <c r="Z12" s="25" t="n">
         <v>1.2443357395E10</v>
@@ -20905,7 +20905,7 @@
         <v>1.0543910055E10</v>
       </c>
       <c r="H13" s="25" t="n">
-        <v>6.274315087E9</v>
+        <v>6.123401855E9</v>
       </c>
       <c r="J13" s="25" t="n">
         <v>4.914817924E9</v>
@@ -20953,7 +20953,7 @@
         <v>6.571827079E9</v>
       </c>
       <c r="Y13" s="25" t="n">
-        <v>6.274315087E9</v>
+        <v>6.123401855E9</v>
       </c>
       <c r="Z13" s="25" t="n">
         <v>1.2394678196E10</v>
@@ -20988,7 +20988,7 @@
         <v>3.4303038819E10</v>
       </c>
       <c r="H14" s="25" t="n">
-        <v>3.3844548255E10</v>
+        <v>3.3952335158E10</v>
       </c>
       <c r="J14" s="25" t="n">
         <v>3.0198850952E10</v>
@@ -21036,7 +21036,7 @@
         <v>3.58983669E9</v>
       </c>
       <c r="Y14" s="25" t="n">
-        <v>3.3844548255E10</v>
+        <v>3.3952335158E10</v>
       </c>
       <c r="Z14" s="25" t="n">
         <v>4.8679199E7</v>
@@ -21818,7 +21818,7 @@
         <v>1.29247176911E11</v>
       </c>
       <c r="H24" s="25" t="n">
-        <v>8.8375168291E10</v>
+        <v>8.8350425624E10</v>
       </c>
       <c r="J24" s="25" t="n">
         <v>1.1406776155E10</v>
@@ -21866,7 +21866,7 @@
         <v>1.97392944599E11</v>
       </c>
       <c r="Y24" s="25" t="n">
-        <v>8.8375168291E10</v>
+        <v>8.8350425624E10</v>
       </c>
       <c r="Z24" s="25" t="n">
         <v>8.8333399579E10</v>
@@ -22150,7 +22150,7 @@
         <v>1.29247176911E11</v>
       </c>
       <c r="H28" s="25" t="n">
-        <v>8.8375168291E10</v>
+        <v>8.8350425624E10</v>
       </c>
       <c r="J28" s="25" t="n">
         <v>1.1406776155E10</v>
@@ -22198,7 +22198,7 @@
         <v>1.97392944599E11</v>
       </c>
       <c r="Y28" s="25" t="n">
-        <v>8.8375168291E10</v>
+        <v>8.8350425624E10</v>
       </c>
       <c r="Z28" s="25" t="n">
         <v>8.8333399579E10</v>
@@ -22233,7 +22233,7 @@
         <v>9.9820416683E10</v>
       </c>
       <c r="H29" s="25" t="n">
-        <v>1.2542949483E11</v>
+        <v>1.25445774829E11</v>
       </c>
       <c r="J29" s="25" t="n">
         <v>0.0</v>
@@ -22281,7 +22281,7 @@
         <v>1.23347798432E11</v>
       </c>
       <c r="Y29" s="25" t="n">
-        <v>1.2542949483E11</v>
+        <v>1.25445774829E11</v>
       </c>
       <c r="Z29" s="25" t="n">
         <v>1.32281760552E11</v>
@@ -22399,7 +22399,7 @@
         <v>3.5284138759E10</v>
       </c>
       <c r="H31" s="25" t="n">
-        <v>6.6960464805E10</v>
+        <v>6.6948244806E10</v>
       </c>
       <c r="J31" s="25" t="n">
         <v>0.0</v>
@@ -22447,7 +22447,7 @@
         <v>6.6207933742E10</v>
       </c>
       <c r="Y31" s="25" t="n">
-        <v>6.6960464805E10</v>
+        <v>6.6948244806E10</v>
       </c>
       <c r="Z31" s="25" t="n">
         <v>6.9301184455E10</v>
@@ -22482,7 +22482,7 @@
         <v>0.0</v>
       </c>
       <c r="H32" s="25" t="n">
-        <v>0.0</v>
+        <v>2.85E7</v>
       </c>
       <c r="J32" s="25" t="n">
         <v>0.0</v>
@@ -22530,7 +22530,7 @@
         <v>0.0</v>
       </c>
       <c r="Y32" s="25" t="n">
-        <v>0.0</v>
+        <v>2.85E7</v>
       </c>
       <c r="Z32" s="25" t="n">
         <v>0.0</v>
@@ -22731,7 +22731,7 @@
         <v>4.912979676E10</v>
       </c>
       <c r="H35" s="25" t="n">
-        <v>4.7999527667E10</v>
+        <v>4.7999527665E10</v>
       </c>
       <c r="J35" s="25" t="n">
         <v>0.0</v>
@@ -22779,7 +22779,7 @@
         <v>4.5161238571E10</v>
       </c>
       <c r="Y35" s="25" t="n">
-        <v>4.7999527667E10</v>
+        <v>4.7999527665E10</v>
       </c>
       <c r="Z35" s="25" t="n">
         <v>4.6243834329E10</v>
@@ -23478,7 +23478,7 @@
         <v>5.4505791E7</v>
       </c>
       <c r="H44" s="25" t="n">
-        <v>0.0</v>
+        <v>6.4489291E7</v>
       </c>
       <c r="J44" s="25" t="n">
         <v>0.0</v>
@@ -23526,7 +23526,7 @@
         <v>9.1473941E7</v>
       </c>
       <c r="Y44" s="25" t="n">
-        <v>0.0</v>
+        <v>6.4489291E7</v>
       </c>
       <c r="Z44" s="25" t="n">
         <v>0.0</v>
@@ -23561,7 +23561,7 @@
         <v>5.4505791E7</v>
       </c>
       <c r="H45" s="25" t="n">
-        <v>0.0</v>
+        <v>6.4489291E7</v>
       </c>
       <c r="J45" s="25" t="n">
         <v>0.0</v>
@@ -23609,7 +23609,7 @@
         <v>9.1473941E7</v>
       </c>
       <c r="Y45" s="25" t="n">
-        <v>0.0</v>
+        <v>6.4489291E7</v>
       </c>
       <c r="Z45" s="25" t="n">
         <v>0.0</v>
@@ -23893,7 +23893,7 @@
         <v>4.4500231496E10</v>
       </c>
       <c r="H49" s="25" t="n">
-        <v>6.088346967E10</v>
+        <v>6.0630319833E10</v>
       </c>
       <c r="J49" s="25" t="n">
         <v>0.0</v>
@@ -23941,7 +23941,7 @@
         <v>4.4335344783E10</v>
       </c>
       <c r="Y49" s="25" t="n">
-        <v>6.088346967E10</v>
+        <v>6.0630319833E10</v>
       </c>
       <c r="Z49" s="25" t="n">
         <v>6.0922500185E10</v>
@@ -24059,7 +24059,7 @@
         <v>5.68437294E8</v>
       </c>
       <c r="H51" s="25" t="n">
-        <v>1.7939016094E10</v>
+        <v>1.7685866257E10</v>
       </c>
       <c r="J51" s="25" t="n">
         <v>0.0</v>
@@ -24107,7 +24107,7 @@
         <v>4.83322116E8</v>
       </c>
       <c r="Y51" s="25" t="n">
-        <v>1.7939016094E10</v>
+        <v>1.7685866257E10</v>
       </c>
       <c r="Z51" s="25" t="n">
         <v>2.92180352E8</v>
@@ -24225,7 +24225,7 @@
         <v>3.0441694256E10</v>
       </c>
       <c r="H53" s="25" t="n">
-        <v>3.3278636321E10</v>
+        <v>3.3278636322E10</v>
       </c>
       <c r="J53" s="25" t="n">
         <v>0.0</v>
@@ -24273,7 +24273,7 @@
         <v>3.277443084E10</v>
       </c>
       <c r="Y53" s="25" t="n">
-        <v>3.3278636321E10</v>
+        <v>3.3278636322E10</v>
       </c>
       <c r="Z53" s="25" t="n">
         <v>3.4227090533E10</v>
@@ -24391,7 +24391,7 @@
         <v>4.808522918E9</v>
       </c>
       <c r="H55" s="25" t="n">
-        <v>3.875096567E9</v>
+        <v>3.799465812E9</v>
       </c>
       <c r="J55" s="25" t="n">
         <v>0.0</v>
@@ -24439,7 +24439,7 @@
         <v>2.980945414E9</v>
       </c>
       <c r="Y55" s="25" t="n">
-        <v>3.875096567E9</v>
+        <v>3.799465812E9</v>
       </c>
       <c r="Z55" s="25" t="n">
         <v>9.48454211E8</v>
@@ -24474,7 +24474,7 @@
         <v>0.0</v>
       </c>
       <c r="H56" s="25" t="n">
-        <v>-1.038154501E9</v>
+        <v>-9.62523745E8</v>
       </c>
       <c r="J56" s="25" t="n">
         <v>0.0</v>
@@ -24522,7 +24522,7 @@
         <v>-6.48208829E8</v>
       </c>
       <c r="Y56" s="25" t="n">
-        <v>-1.038154501E9</v>
+        <v>-9.62523745E8</v>
       </c>
       <c r="Z56" s="25" t="n">
         <v>0.0</v>
@@ -26383,7 +26383,7 @@
         <v>1.5643272E10</v>
       </c>
       <c r="H79" s="25" t="n">
-        <v>3.0621900745E10</v>
+        <v>3.0604905969E10</v>
       </c>
       <c r="J79" s="25" t="n">
         <v>3.10357625E10</v>
@@ -26431,7 +26431,7 @@
         <v>0.0</v>
       </c>
       <c r="Y79" s="25" t="n">
-        <v>3.0621900745E10</v>
+        <v>3.0604905969E10</v>
       </c>
       <c r="Z79" s="25" t="n">
         <v>1.8130083799E10</v>
@@ -26466,7 +26466,7 @@
         <v>1.4949E10</v>
       </c>
       <c r="H80" s="25" t="n">
-        <v>3.0265916908E10</v>
+        <v>3.0266348566E10</v>
       </c>
       <c r="J80" s="25" t="n">
         <v>3.10357625E10</v>
@@ -26514,7 +26514,7 @@
         <v>0.0</v>
       </c>
       <c r="Y80" s="25" t="n">
-        <v>3.0265916908E10</v>
+        <v>3.0266348566E10</v>
       </c>
       <c r="Z80" s="25" t="n">
         <v>1.7899202799E10</v>
@@ -26549,7 +26549,7 @@
         <v>6.94272E8</v>
       </c>
       <c r="H81" s="25" t="n">
-        <v>3.55983837E8</v>
+        <v>3.38557403E8</v>
       </c>
       <c r="J81" s="25" t="n">
         <v>0.0</v>
@@ -26597,7 +26597,7 @@
         <v>0.0</v>
       </c>
       <c r="Y81" s="25" t="n">
-        <v>3.55983837E8</v>
+        <v>3.38557403E8</v>
       </c>
       <c r="Z81" s="25" t="n">
         <v>2.30881E8</v>
@@ -27296,7 +27296,7 @@
         <v>3.072709658E9</v>
       </c>
       <c r="H90" s="25" t="n">
-        <v>3.52138481E9</v>
+        <v>3.328464441E9</v>
       </c>
       <c r="J90" s="25" t="n">
         <v>2.666046594E9</v>
@@ -27344,7 +27344,7 @@
         <v>3.934254778E9</v>
       </c>
       <c r="Y90" s="25" t="n">
-        <v>3.52138481E9</v>
+        <v>3.328464441E9</v>
       </c>
       <c r="Z90" s="25" t="n">
         <v>3.898870532E9</v>
@@ -27628,7 +27628,7 @@
         <v>3.072544658E9</v>
       </c>
       <c r="H94" s="25" t="n">
-        <v>3.52138481E9</v>
+        <v>3.328464441E9</v>
       </c>
       <c r="J94" s="25" t="n">
         <v>2.665881594E9</v>
@@ -27676,7 +27676,7 @@
         <v>3.934254778E9</v>
       </c>
       <c r="Y94" s="25" t="n">
-        <v>3.52138481E9</v>
+        <v>3.328464441E9</v>
       </c>
       <c r="Z94" s="25" t="n">
         <v>3.898870532E9</v>
@@ -28541,7 +28541,7 @@
         <v>8.95950371E8</v>
       </c>
       <c r="H105" s="25" t="n">
-        <v>1.262064071E9</v>
+        <v>1.2999166E9</v>
       </c>
       <c r="J105" s="25" t="n">
         <v>9.02988851E8</v>
@@ -28589,7 +28589,7 @@
         <v>1.129655563E9</v>
       </c>
       <c r="Y105" s="25" t="n">
-        <v>1.262064071E9</v>
+        <v>1.2999166E9</v>
       </c>
       <c r="Z105" s="25" t="n">
         <v>1.467021606E9</v>
@@ -28790,7 +28790,7 @@
         <v>8.15711807E8</v>
       </c>
       <c r="H108" s="25" t="n">
-        <v>0.0</v>
+        <v>1.187048934E9</v>
       </c>
       <c r="J108" s="25" t="n">
         <v>7.63766294E8</v>
@@ -28838,7 +28838,7 @@
         <v>1.049519504E9</v>
       </c>
       <c r="Y108" s="25" t="n">
-        <v>0.0</v>
+        <v>1.187048934E9</v>
       </c>
       <c r="Z108" s="25" t="n">
         <v>1.320948923E9</v>
@@ -28873,7 +28873,7 @@
         <v>5.6176412E7</v>
       </c>
       <c r="H109" s="25" t="n">
-        <v>0.0</v>
+        <v>7.8653754E7</v>
       </c>
       <c r="J109" s="25" t="n">
         <v>9.7494445E7</v>
@@ -28921,7 +28921,7 @@
         <v>5.5867165E7</v>
       </c>
       <c r="Y109" s="25" t="n">
-        <v>0.0</v>
+        <v>7.8653754E7</v>
       </c>
       <c r="Z109" s="25" t="n">
         <v>1.01776916E8</v>
@@ -28956,7 +28956,7 @@
         <v>2.4062152E7</v>
       </c>
       <c r="H110" s="25" t="n">
-        <v>0.0</v>
+        <v>3.4213912E7</v>
       </c>
       <c r="J110" s="25" t="n">
         <v>4.1728112E7</v>
@@ -29004,7 +29004,7 @@
         <v>2.4268894E7</v>
       </c>
       <c r="Y110" s="25" t="n">
-        <v>0.0</v>
+        <v>3.4213912E7</v>
       </c>
       <c r="Z110" s="25" t="n">
         <v>4.4295767E7</v>
@@ -29288,7 +29288,7 @@
         <v>0.0</v>
       </c>
       <c r="H114" s="25" t="n">
-        <v>1.262064071E9</v>
+        <v>0.0</v>
       </c>
       <c r="J114" s="25" t="n">
         <v>0.0</v>
@@ -29336,7 +29336,7 @@
         <v>0.0</v>
       </c>
       <c r="Y114" s="25" t="n">
-        <v>1.262064071E9</v>
+        <v>0.0</v>
       </c>
       <c r="Z114" s="25" t="n">
         <v>0.0</v>
@@ -29371,7 +29371,7 @@
         <v>6.07961E8</v>
       </c>
       <c r="H115" s="25" t="n">
-        <v>0.0</v>
+        <v>1.7869E7</v>
       </c>
       <c r="J115" s="25" t="n">
         <v>6.877353E9</v>
@@ -29419,7 +29419,7 @@
         <v>2.9984E8</v>
       </c>
       <c r="Y115" s="25" t="n">
-        <v>0.0</v>
+        <v>1.7869E7</v>
       </c>
       <c r="Z115" s="25" t="n">
         <v>0.0</v>
@@ -29454,7 +29454,7 @@
         <v>6.07961E8</v>
       </c>
       <c r="H116" s="25" t="n">
-        <v>0.0</v>
+        <v>1.7869E7</v>
       </c>
       <c r="J116" s="25" t="n">
         <v>6.877353E9</v>
@@ -29502,7 +29502,7 @@
         <v>2.9984E8</v>
       </c>
       <c r="Y116" s="25" t="n">
-        <v>0.0</v>
+        <v>1.7869E7</v>
       </c>
       <c r="Z116" s="25" t="n">
         <v>0.0</v>
@@ -30118,7 +30118,7 @@
         <v>0.0</v>
       </c>
       <c r="H124" s="25" t="n">
-        <v>2.89023851965E11</v>
+        <v>2.88726652811E11</v>
       </c>
       <c r="J124" s="25" t="n">
         <v>0.0</v>
@@ -30166,7 +30166,7 @@
         <v>6.5169105897E10</v>
       </c>
       <c r="Y124" s="25" t="n">
-        <v>6.5648905869E10</v>
+        <v>6.5351706715E10</v>
       </c>
       <c r="Z124" s="25" t="n">
         <v>4.4475337897E10</v>
@@ -30201,7 +30201,7 @@
         <v>0.0</v>
       </c>
       <c r="H125" s="25" t="n">
-        <v>2.72332422282E11</v>
+        <v>2.8278522918E11</v>
       </c>
       <c r="J125" s="25" t="n">
         <v>0.0</v>
@@ -30249,7 +30249,7 @@
         <v>6.5169105897E10</v>
       </c>
       <c r="Y125" s="25" t="n">
-        <v>6.5648905869E10</v>
+        <v>6.5351706715E10</v>
       </c>
       <c r="Z125" s="25" t="n">
         <v>4.4475337897E10</v>
@@ -30284,7 +30284,7 @@
         <v>0.0</v>
       </c>
       <c r="H126" s="25" t="n">
-        <v>1.6691429683E10</v>
+        <v>5.941423631E9</v>
       </c>
       <c r="J126" s="25" t="n">
         <v>0.0</v>
@@ -31031,7 +31031,7 @@
         <v>0.0</v>
       </c>
       <c r="H135" s="25" t="n">
-        <v>2.60589977664E11</v>
+        <v>2.60589977662E11</v>
       </c>
       <c r="J135" s="25" t="n">
         <v>0.0</v>
@@ -31079,7 +31079,7 @@
         <v>5.9098955971E10</v>
       </c>
       <c r="Y135" s="25" t="n">
-        <v>5.8742667754E10</v>
+        <v>5.8742667752E10</v>
       </c>
       <c r="Z135" s="25" t="n">
         <v>3.8112255607E10</v>
@@ -31114,7 +31114,7 @@
         <v>0.0</v>
       </c>
       <c r="H136" s="25" t="n">
-        <v>2.22939464628E11</v>
+        <v>1.42431736581E11</v>
       </c>
       <c r="J136" s="25" t="n">
         <v>0.0</v>
@@ -31162,7 +31162,7 @@
         <v>4.06471281E10</v>
       </c>
       <c r="Y136" s="25" t="n">
-        <v>3.9543982589E10</v>
+        <v>-4.0963745458E10</v>
       </c>
       <c r="Z136" s="25" t="n">
         <v>2.1904427893E10</v>
@@ -31197,7 +31197,7 @@
         <v>0.0</v>
       </c>
       <c r="H137" s="25" t="n">
-        <v>3.7644317466E10</v>
+        <v>1.1416070659E11</v>
       </c>
       <c r="J137" s="25" t="n">
         <v>0.0</v>
@@ -31245,7 +31245,7 @@
         <v>1.8445632301E10</v>
       </c>
       <c r="Y137" s="25" t="n">
-        <v>1.9198685165E10</v>
+        <v>9.5715074289E10</v>
       </c>
       <c r="Z137" s="25" t="n">
         <v>1.6207827714E10</v>
@@ -31280,7 +31280,7 @@
         <v>0.0</v>
       </c>
       <c r="H138" s="25" t="n">
-        <v>6195570.0</v>
+        <v>3.997534491E9</v>
       </c>
       <c r="J138" s="25" t="n">
         <v>0.0</v>
@@ -31328,7 +31328,7 @@
         <v>6195570.0</v>
       </c>
       <c r="Y138" s="25" t="n">
-        <v>0.0</v>
+        <v>3.991338921E9</v>
       </c>
       <c r="Z138" s="25" t="n">
         <v>0.0</v>
@@ -31778,7 +31778,7 @@
         <v>0.0</v>
       </c>
       <c r="H144" s="25" t="n">
-        <v>8.51653997E8</v>
+        <v>8.5787294E8</v>
       </c>
       <c r="J144" s="25" t="n">
         <v>0.0</v>
@@ -31826,7 +31826,7 @@
         <v>1564862.0</v>
       </c>
       <c r="Y144" s="25" t="n">
-        <v>7.94242798E8</v>
+        <v>8.00461741E8</v>
       </c>
       <c r="Z144" s="25" t="n">
         <v>2.8868865E7</v>
@@ -31861,7 +31861,7 @@
         <v>0.0</v>
       </c>
       <c r="H145" s="25" t="n">
-        <v>9.4354571E7</v>
+        <v>7.1345885E7</v>
       </c>
       <c r="J145" s="25" t="n">
         <v>0.0</v>
@@ -31909,7 +31909,7 @@
         <v>1564862.0</v>
       </c>
       <c r="Y145" s="25" t="n">
-        <v>3.8933949E7</v>
+        <v>1.5925263E7</v>
       </c>
       <c r="Z145" s="25" t="n">
         <v>2.8868865E7</v>
@@ -32027,7 +32027,7 @@
         <v>0.0</v>
       </c>
       <c r="H147" s="25" t="n">
-        <v>0.0</v>
+        <v>6.7E8</v>
       </c>
       <c r="J147" s="25" t="n">
         <v>0.0</v>
@@ -32075,7 +32075,7 @@
         <v>0.0</v>
       </c>
       <c r="Y147" s="25" t="n">
-        <v>0.0</v>
+        <v>6.7E8</v>
       </c>
       <c r="Z147" s="25" t="n">
         <v>0.0</v>
@@ -32276,7 +32276,7 @@
         <v>0.0</v>
       </c>
       <c r="H150" s="25" t="n">
-        <v>8.5308849E7</v>
+        <v>0.0</v>
       </c>
       <c r="J150" s="25" t="n">
         <v>0.0</v>
@@ -32324,7 +32324,7 @@
         <v>0.0</v>
       </c>
       <c r="Y150" s="25" t="n">
-        <v>8.5308849E7</v>
+        <v>0.0</v>
       </c>
       <c r="Z150" s="25" t="n">
         <v>0.0</v>
@@ -32525,7 +32525,7 @@
         <v>0.0</v>
       </c>
       <c r="H153" s="25" t="n">
-        <v>6.71990577E8</v>
+        <v>1.16527055E8</v>
       </c>
       <c r="J153" s="25" t="n">
         <v>0.0</v>
@@ -32573,7 +32573,7 @@
         <v>0.0</v>
       </c>
       <c r="Y153" s="25" t="n">
-        <v>6.7E8</v>
+        <v>1.14536478E8</v>
       </c>
       <c r="Z153" s="25" t="n">
         <v>0.0</v>
@@ -32608,7 +32608,7 @@
         <v>0.0</v>
       </c>
       <c r="H154" s="25" t="n">
-        <v>1.305427808E9</v>
+        <v>1.305080279E9</v>
       </c>
       <c r="J154" s="25" t="n">
         <v>0.0</v>
@@ -32656,7 +32656,7 @@
         <v>2.35920936E8</v>
       </c>
       <c r="Y154" s="25" t="n">
-        <v>4.16521819E8</v>
+        <v>4.1617429E8</v>
       </c>
       <c r="Z154" s="25" t="n">
         <v>4.27900541E8</v>
@@ -33023,7 +33023,7 @@
         <v>0.0</v>
       </c>
       <c r="H159" s="25" t="n">
-        <v>352864.0</v>
+        <v>0.0</v>
       </c>
       <c r="J159" s="25" t="n">
         <v>0.0</v>
@@ -33071,7 +33071,7 @@
         <v>0.0</v>
       </c>
       <c r="Y159" s="25" t="n">
-        <v>352864.0</v>
+        <v>0.0</v>
       </c>
       <c r="Z159" s="25" t="n">
         <v>0.0</v>
@@ -33272,7 +33272,7 @@
         <v>0.0</v>
       </c>
       <c r="H162" s="25" t="n">
-        <v>0.0</v>
+        <v>5335.0</v>
       </c>
       <c r="J162" s="25" t="n">
         <v>0.0</v>
@@ -33320,7 +33320,7 @@
         <v>0.0</v>
       </c>
       <c r="Y162" s="25" t="n">
-        <v>0.0</v>
+        <v>5335.0</v>
       </c>
       <c r="Z162" s="25" t="n">
         <v>0.0</v>
@@ -33355,7 +33355,7 @@
         <v>0.0</v>
       </c>
       <c r="H163" s="25" t="n">
-        <v>9.0184862958E10</v>
+        <v>1.31457577547E11</v>
       </c>
       <c r="J163" s="25" t="n">
         <v>0.0</v>
@@ -33403,7 +33403,7 @@
         <v>1.3158591435E10</v>
       </c>
       <c r="Y163" s="25" t="n">
-        <v>1.4667901086E10</v>
+        <v>5.5940615675E10</v>
       </c>
       <c r="Z163" s="25" t="n">
         <v>1.1359610781E10</v>
@@ -33438,7 +33438,7 @@
         <v>0.0</v>
       </c>
       <c r="H164" s="25" t="n">
-        <v>6.7819245415E10</v>
+        <v>1.13605291709E11</v>
       </c>
       <c r="J164" s="25" t="n">
         <v>0.0</v>
@@ -33486,7 +33486,7 @@
         <v>6.960416929E9</v>
       </c>
       <c r="Y164" s="25" t="n">
-        <v>6.960416929E9</v>
+        <v>5.2746463223E10</v>
       </c>
       <c r="Z164" s="25" t="n">
         <v>6.960416929E9</v>
@@ -33521,7 +33521,7 @@
         <v>0.0</v>
       </c>
       <c r="H165" s="25" t="n">
-        <v>7.211310243E9</v>
+        <v>8.084305973E9</v>
       </c>
       <c r="J165" s="25" t="n">
         <v>0.0</v>
@@ -33569,7 +33569,7 @@
         <v>1.717620121E9</v>
       </c>
       <c r="Y165" s="25" t="n">
-        <v>1.717620121E9</v>
+        <v>2.590615851E9</v>
       </c>
       <c r="Z165" s="25" t="n">
         <v>1.717620121E9</v>
@@ -33604,7 +33604,7 @@
         <v>0.0</v>
       </c>
       <c r="H166" s="25" t="n">
-        <v>1.0495618379E10</v>
+        <v>3.815232047E9</v>
       </c>
       <c r="J166" s="25" t="n">
         <v>0.0</v>
@@ -33652,7 +33652,7 @@
         <v>3.646306018E9</v>
       </c>
       <c r="Y166" s="25" t="n">
-        <v>4.686613283E9</v>
+        <v>-1.993773049E9</v>
       </c>
       <c r="Z166" s="25" t="n">
         <v>1.170241079E9</v>
@@ -33687,7 +33687,7 @@
         <v>0.0</v>
       </c>
       <c r="H167" s="25" t="n">
-        <v>4.613109972E9</v>
+        <v>5.762460945E9</v>
       </c>
       <c r="J167" s="25" t="n">
         <v>0.0</v>
@@ -33735,7 +33735,7 @@
         <v>8.34248367E8</v>
       </c>
       <c r="Y167" s="25" t="n">
-        <v>1.303250753E9</v>
+        <v>2.452601726E9</v>
       </c>
       <c r="Z167" s="25" t="n">
         <v>1.163439172E9</v>
@@ -33770,7 +33770,7 @@
         <v>0.0</v>
       </c>
       <c r="H168" s="25" t="n">
-        <v>4.5578949E7</v>
+        <v>1.90286873E8</v>
       </c>
       <c r="J168" s="25" t="n">
         <v>0.0</v>
@@ -33818,7 +33818,7 @@
         <v>0.0</v>
       </c>
       <c r="Y168" s="25" t="n">
-        <v>0.0</v>
+        <v>1.44707924E8</v>
       </c>
       <c r="Z168" s="25" t="n">
         <v>3.4789348E8</v>

--- a/data/BKG.xlsx
+++ b/data/BKG.xlsx
@@ -73,7 +73,7 @@
     <t>Ngày xuất</t>
   </si>
   <si>
-    <t>17/12/2025</t>
+    <t>21/12/2025</t>
   </si>
   <si>
     <t>BKG</t>

--- a/data/BKG.xlsx
+++ b/data/BKG.xlsx
@@ -73,7 +73,7 @@
     <t>Ngày xuất</t>
   </si>
   <si>
-    <t>21/12/2025</t>
+    <t>23/12/2025</t>
   </si>
   <si>
     <t>BKG</t>

--- a/data/BKG.xlsx
+++ b/data/BKG.xlsx
@@ -73,7 +73,7 @@
     <t>Ngày xuất</t>
   </si>
   <si>
-    <t>23/12/2025</t>
+    <t>25/12/2025</t>
   </si>
   <si>
     <t>BKG</t>
